--- a/Issue-Tracker.xlsx
+++ b/Issue-Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stalevi\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stalevi\Desktop\MyProjectB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>Bug report</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>shreyhery</t>
+  </si>
+  <si>
+    <t>wtwetew</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2397,7 +2400,9 @@
       <c r="A68" s="2"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E68" s="7" t="s">
         <v>77</v>
       </c>

--- a/Issue-Tracker.xlsx
+++ b/Issue-Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>Bug report</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>shreyhery</t>
+  </si>
+  <si>
+    <t>qrqw</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2354,9 @@
       <c r="A65" s="2"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>62</v>
       </c>
